--- a/app/config/tables/large_dataset/forms/large_dataset/large_dataset.xlsx
+++ b/app/config/tables/large_dataset/forms/large_dataset/large_dataset.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1165" yWindow="0" windowWidth="27386" windowHeight="19584"/>
+    <workbookView xWindow="1165" yWindow="0" windowWidth="27386" windowHeight="19584" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>type</t>
   </si>
@@ -77,12 +77,6 @@
     <t>setting_name</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>instance_name</t>
   </si>
   <si>
@@ -231,6 +225,15 @@
   </si>
   <si>
     <t>Unit price</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
@@ -746,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -756,6 +759,7 @@
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="31.375" customWidth="1"/>
     <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
@@ -769,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -782,16 +786,16 @@
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -801,13 +805,13 @@
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -833,13 +837,13 @@
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -852,10 +856,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -863,10 +867,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -874,32 +878,32 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -941,90 +945,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1036,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1063,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1079,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,15 +1091,15 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1125,13 +1129,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1148,19 +1152,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1171,19 +1175,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>

--- a/app/config/tables/large_dataset/forms/large_dataset/large_dataset.xlsx
+++ b/app/config/tables/large_dataset/forms/large_dataset/large_dataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1165" yWindow="0" windowWidth="27386" windowHeight="19584" activeTab="2"/>
+    <workbookView xWindow="1165" yWindow="0" windowWidth="27386" windowHeight="19584" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>type</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>data_value</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>survey</t>
@@ -773,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -786,16 +783,16 @@
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -805,13 +802,13 @@
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -837,13 +834,13 @@
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -856,10 +853,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -867,10 +864,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -878,32 +875,32 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
         <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -921,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -940,95 +937,95 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1053,13 +1050,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1067,7 +1064,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1083,23 +1080,23 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1129,13 +1126,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1152,19 +1149,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1175,19 +1172,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
